--- a/data/trans_camb/iP16_n_R2-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/iP16_n_R2-Estudios-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-42,19; -0,67</t>
+          <t>-40,48; -1,88</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-38,65; 15,87</t>
+          <t>-37,37; 14,62</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-23,26; 32,7</t>
+          <t>-19,08; 32,44</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-32,5; 10,43</t>
+          <t>-31,19; 10,31</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-48,21; -12,42</t>
+          <t>-48,41; -13,07</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-37,02; 15,71</t>
+          <t>-37,66; 12,9</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-29,99; 0,63</t>
+          <t>-30,56; -2,05</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-37,89; -8,91</t>
+          <t>-37,69; -6,74</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-24,43; 16,92</t>
+          <t>-21,84; 18,39</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-95,13; 10,3</t>
+          <t>-92,46; 10,06</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 116,33</t>
+          <t>-100,0; 107,89</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-56,48; 166,16</t>
+          <t>-51,93; 167,43</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-74,08; 58,85</t>
+          <t>-73,62; 49,77</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -22,35</t>
+          <t>-100,0; -8,35</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-86,78; 85,8</t>
+          <t>-90,13; 55,89</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-76,32; 6,43</t>
+          <t>-75,03; -1,35</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-94,03; -19,69</t>
+          <t>-93,64; -16,31</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-60,16; 68,97</t>
+          <t>-56,25; 74,4</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-37,57; -16,32</t>
+          <t>-37,7; -17,39</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-37,02; -16,35</t>
+          <t>-37,34; -16,32</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-18,58; 4,4</t>
+          <t>-17,45; 3,95</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-36,37; -12,48</t>
+          <t>-34,47; -12,56</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-39,54; -18,38</t>
+          <t>-39,07; -18,0</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-23,49; 1,71</t>
+          <t>-23,01; 2,06</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-33,45; -18,39</t>
+          <t>-33,06; -17,76</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-35,33; -20,44</t>
+          <t>-35,0; -19,99</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-16,86; 0,39</t>
+          <t>-15,99; -0,15</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-79,17; -45,49</t>
+          <t>-78,61; -46,63</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-78,01; -45,46</t>
+          <t>-77,95; -42,95</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-38,44; 12,38</t>
+          <t>-37,0; 10,52</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-72,07; -32,53</t>
+          <t>-72,52; -33,61</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-81,98; -49,23</t>
+          <t>-81,38; -50,7</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-48,82; 4,31</t>
+          <t>-48,16; 5,88</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-72,33; -48,21</t>
+          <t>-71,48; -46,31</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-76,22; -51,69</t>
+          <t>-76,45; -52,11</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-36,44; 0,14</t>
+          <t>-34,9; -0,32</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-41,46; -8,09</t>
+          <t>-40,95; -8,76</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-45,97; -14,51</t>
+          <t>-46,5; -13,98</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-29,22; 8,27</t>
+          <t>-27,7; 8,95</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-32,92; 0,89</t>
+          <t>-32,61; 1,04</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-31,9; 5,39</t>
+          <t>-31,53; 5,43</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-8,8; 29,15</t>
+          <t>-10,85; 28,68</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-35,0; -10,24</t>
+          <t>-33,67; -9,04</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-36,96; -12,02</t>
+          <t>-35,61; -10,09</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-15,16; 13,89</t>
+          <t>-13,43; 12,61</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-85,76; -22,94</t>
+          <t>-85,53; -27,66</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-94,02; -38,1</t>
+          <t>-94,07; -40,34</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-58,66; 28,61</t>
+          <t>-57,54; 29,08</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-82,64; 18,62</t>
+          <t>-83,14; 20,66</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-80,91; 46,47</t>
+          <t>-83,44; 41,81</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-23,35; 172,64</t>
+          <t>-28,68; 173,44</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-80,61; -35,21</t>
+          <t>-78,77; -29,44</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-84,25; -37,71</t>
+          <t>-85,18; -34,1</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-36,07; 49,01</t>
+          <t>-32,25; 44,17</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-33,94; -18,09</t>
+          <t>-34,24; -18,29</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-34,02; -17,54</t>
+          <t>-34,39; -18,0</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-14,62; 3,41</t>
+          <t>-13,7; 3,94</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-29,21; -12,33</t>
+          <t>-29,36; -12,04</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-34,34; -16,91</t>
+          <t>-34,79; -17,65</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-15,44; 4,2</t>
+          <t>-15,18; 5,36</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-28,96; -17,36</t>
+          <t>-29,32; -17,4</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-31,55; -20,0</t>
+          <t>-31,83; -20,5</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-11,78; 0,95</t>
+          <t>-11,66; 1,3</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-76,68; -50,49</t>
+          <t>-76,47; -50,97</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-77,94; -50,17</t>
+          <t>-77,91; -49,51</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-34,04; 9,51</t>
+          <t>-31,67; 11,92</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-66,95; -34,01</t>
+          <t>-67,79; -34,88</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-78,52; -51,63</t>
+          <t>-80,0; -52,72</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-35,46; 11,89</t>
+          <t>-35,68; 16,76</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-68,84; -48,26</t>
+          <t>-69,21; -48,54</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-74,92; -55,28</t>
+          <t>-74,81; -56,12</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-27,85; 1,86</t>
+          <t>-27,91; 4,09</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/iP16_n_R2-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/iP16_n_R2-Estudios-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K24"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -537,14 +537,14 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="G1" s="3" t="n"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Primarios</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-11,39</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-29,71</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-18,43</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-20,87</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-14,94</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>3,94</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-15,46</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-24,12</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-7,16</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-34,37; 8,39</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-48,63; -13,57</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-41,26; 10,65</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-40,27; -0,72</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-36,47; 17,35</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,0; 30,2</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-29,35; -0,09</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-37,74; -7,84</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,36; 12,08</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-34,2%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-89,21%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-55,35%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-67,56%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-48,36%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,74%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-48,1%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-75,02%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-22,26%</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-72,88; 48,87</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; -36,19</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-96,38; 41,88</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-91,56; 13,95</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 140,03</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-61,57; 153,7</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-74,27; 3,38</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-93,98; -23,49</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-70,65; 46,04</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Primarios</t>
+          <t>Secundarios</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-20,87</t>
+          <t>-23,63</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-14,94</t>
+          <t>-28,92</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>6,73</t>
+          <t>-15,78</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-11,39</t>
+          <t>-27,81</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-29,71</t>
+          <t>-26,96</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-13,69</t>
+          <t>-7,28</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-15,46</t>
+          <t>-25,87</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-24,12</t>
+          <t>-27,92</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-2,66</t>
+          <t>-11,54</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-40,48; -1,88</t>
+          <t>-34,52; -11,98</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-37,37; 14,62</t>
+          <t>-39,89; -19,32</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-19,08; 32,44</t>
+          <t>-33,53; -4,14</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-31,19; 10,31</t>
+          <t>-37,92; -17,37</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-48,41; -13,07</t>
+          <t>-36,93; -15,82</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-37,66; 12,9</t>
+          <t>-18,95; 4,8</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-30,56; -2,05</t>
+          <t>-33,59; -18,44</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-37,69; -6,74</t>
+          <t>-35,95; -20,75</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-21,84; 18,39</t>
+          <t>-22,63; -3,41</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-67,56%</t>
+          <t>-55,7%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-48,36%</t>
+          <t>-68,16%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>21,78%</t>
+          <t>-37,2%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-34,2%</t>
+          <t>-66,08%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-89,21%</t>
+          <t>-64,05%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-41,11%</t>
+          <t>-17,29%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-48,1%</t>
+          <t>-61,22%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-75,02%</t>
+          <t>-66,08%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-8,27%</t>
+          <t>-27,3%</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-92,46; 10,06</t>
+          <t>-73,14; -32,05</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 107,89</t>
+          <t>-81,17; -51,31</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-51,93; 167,43</t>
+          <t>-70,09; -11,04</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-73,62; 49,77</t>
+          <t>-77,94; -44,49</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -8,35</t>
+          <t>-78,76; -43,51</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-90,13; 55,89</t>
+          <t>-39,79; 12,31</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-75,03; -1,35</t>
+          <t>-71,89; -47,8</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-93,64; -16,31</t>
+          <t>-75,8; -53,87</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-56,25; 74,4</t>
+          <t>-49,81; -8,93</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Secundarios</t>
+          <t>Universitarios</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-27,81</t>
+          <t>-14,9</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-26,96</t>
+          <t>-13,53</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-6,87</t>
+          <t>10,72</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-23,63</t>
+          <t>-25,78</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-28,92</t>
+          <t>-30,85</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-10,35</t>
+          <t>-9,98</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-25,87</t>
+          <t>-21,62</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-27,92</t>
+          <t>-23,49</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-8,51</t>
+          <t>-1,17</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-37,7; -17,39</t>
+          <t>-33,23; 1,68</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-37,34; -16,32</t>
+          <t>-31,19; 4,56</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-17,45; 3,95</t>
+          <t>-11,39; 28,48</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-34,47; -12,56</t>
+          <t>-43,22; -11,49</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-39,07; -18,0</t>
+          <t>-46,24; -15,7</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-23,01; 2,06</t>
+          <t>-28,71; 8,69</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-33,06; -17,76</t>
+          <t>-34,4; -9,96</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-35,0; -19,99</t>
+          <t>-35,1; -10,21</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-15,99; -0,15</t>
+          <t>-15,97; 11,38</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-66,08%</t>
+          <t>-52,88%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-64,05%</t>
+          <t>-48,03%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-16,32%</t>
+          <t>38,06%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-55,7%</t>
+          <t>-64,47%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-68,16%</t>
+          <t>-77,15%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-24,39%</t>
+          <t>-24,95%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-61,22%</t>
+          <t>-61,11%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-66,08%</t>
+          <t>-66,4%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-20,13%</t>
+          <t>-3,31%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-78,61; -46,63</t>
+          <t>-81,43; 17,52</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-77,95; -42,95</t>
+          <t>-83,03; 34,53</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-37,0; 10,52</t>
+          <t>-28,61; 178,73</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-72,52; -33,61</t>
+          <t>-86,16; -28,9</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-81,38; -50,7</t>
+          <t>-94,79; -44,9</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-48,16; 5,88</t>
+          <t>-57,91; 30,09</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-71,48; -46,31</t>
+          <t>-79,78; -32,04</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-76,45; -52,11</t>
+          <t>-83,49; -34,96</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-34,9; -0,32</t>
+          <t>-36,11; 41,73</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Universitarios</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-25,78</t>
+          <t>-20,33</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-30,85</t>
+          <t>-25,71</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-9,84</t>
+          <t>-9,75</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-14,9</t>
+          <t>-26,21</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-13,53</t>
+          <t>-26,2</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>11,46</t>
+          <t>-6,4</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-21,62</t>
+          <t>-23,41</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-23,49</t>
+          <t>-26,02</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-0,62</t>
+          <t>-8,1</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-40,95; -8,76</t>
+          <t>-28,62; -11,14</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-46,5; -13,98</t>
+          <t>-34,7; -18,28</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-27,7; 8,95</t>
+          <t>-23,65; 0,12</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-32,61; 1,04</t>
+          <t>-34,68; -18,65</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-31,53; 5,43</t>
+          <t>-33,84; -17,75</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-10,85; 28,68</t>
+          <t>-14,56; 3,08</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-33,67; -9,04</t>
+          <t>-29,41; -17,8</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-35,61; -10,09</t>
+          <t>-32,15; -20,25</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-13,43; 12,61</t>
+          <t>-16,21; -0,6</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-64,47%</t>
+          <t>-53,15%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-77,15%</t>
+          <t>-67,21%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-24,61%</t>
+          <t>-25,48%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-52,88%</t>
+          <t>-65,55%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-48,03%</t>
+          <t>-65,52%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>40,68%</t>
+          <t>-16,0%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-61,11%</t>
+          <t>-59,74%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-66,4%</t>
+          <t>-66,42%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-1,76%</t>
+          <t>-20,67%</t>
         </is>
       </c>
     </row>
@@ -1439,282 +1439,65 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-85,53; -27,66</t>
+          <t>-66,91; -33,23</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-94,07; -40,34</t>
+          <t>-80,14; -51,99</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-57,54; 29,08</t>
+          <t>-55,64; 0,24</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-83,14; 20,66</t>
+          <t>-77,01; -51,06</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-83,44; 41,81</t>
+          <t>-77,31; -49,48</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-28,68; 173,44</t>
+          <t>-33,59; 9,08</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-78,77; -29,44</t>
+          <t>-69,45; -48,65</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-85,18; -34,1</t>
+          <t>-75,59; -56,57</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-32,25; 44,17</t>
+          <t>-39,44; -2,87</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B20" s="3" t="inlineStr">
-        <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>-26,01</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>-26,0</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>-5,65</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>-20,33</t>
-        </is>
-      </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>-25,71</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="inlineStr">
-        <is>
-          <t>-5,11</t>
-        </is>
-      </c>
-      <c r="I20" s="2" t="inlineStr">
-        <is>
-          <t>-23,3</t>
-        </is>
-      </c>
-      <c r="J20" s="2" t="inlineStr">
-        <is>
-          <t>-25,92</t>
-        </is>
-      </c>
-      <c r="K20" s="2" t="inlineStr">
-        <is>
-          <t>-5,41</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n"/>
-      <c r="B21" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>-34,24; -18,29</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>-34,39; -18,0</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>-13,7; 3,94</t>
-        </is>
-      </c>
-      <c r="F21" s="2" t="inlineStr">
-        <is>
-          <t>-29,36; -12,04</t>
-        </is>
-      </c>
-      <c r="G21" s="2" t="inlineStr">
-        <is>
-          <t>-34,79; -17,65</t>
-        </is>
-      </c>
-      <c r="H21" s="2" t="inlineStr">
-        <is>
-          <t>-15,18; 5,36</t>
-        </is>
-      </c>
-      <c r="I21" s="2" t="inlineStr">
-        <is>
-          <t>-29,32; -17,4</t>
-        </is>
-      </c>
-      <c r="J21" s="2" t="inlineStr">
-        <is>
-          <t>-31,83; -20,5</t>
-        </is>
-      </c>
-      <c r="K21" s="2" t="inlineStr">
-        <is>
-          <t>-11,66; 1,3</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n"/>
-      <c r="B22" s="3" t="inlineStr">
-        <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>-65,38%</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>-65,35%</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>-14,21%</t>
-        </is>
-      </c>
-      <c r="F22" s="2" t="inlineStr">
-        <is>
-          <t>-53,15%</t>
-        </is>
-      </c>
-      <c r="G22" s="2" t="inlineStr">
-        <is>
-          <t>-67,21%</t>
-        </is>
-      </c>
-      <c r="H22" s="2" t="inlineStr">
-        <is>
-          <t>-13,35%</t>
-        </is>
-      </c>
-      <c r="I22" s="2" t="inlineStr">
-        <is>
-          <t>-59,63%</t>
-        </is>
-      </c>
-      <c r="J22" s="2" t="inlineStr">
-        <is>
-          <t>-66,33%</t>
-        </is>
-      </c>
-      <c r="K22" s="2" t="inlineStr">
-        <is>
-          <t>-13,83%</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n"/>
-      <c r="B23" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t>-76,47; -50,97</t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>-77,91; -49,51</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>-31,67; 11,92</t>
-        </is>
-      </c>
-      <c r="F23" s="2" t="inlineStr">
-        <is>
-          <t>-67,79; -34,88</t>
-        </is>
-      </c>
-      <c r="G23" s="2" t="inlineStr">
-        <is>
-          <t>-80,0; -52,72</t>
-        </is>
-      </c>
-      <c r="H23" s="2" t="inlineStr">
-        <is>
-          <t>-35,68; 16,76</t>
-        </is>
-      </c>
-      <c r="I23" s="2" t="inlineStr">
-        <is>
-          <t>-69,21; -48,54</t>
-        </is>
-      </c>
-      <c r="J23" s="2" t="inlineStr">
-        <is>
-          <t>-74,81; -56,12</t>
-        </is>
-      </c>
-      <c r="K23" s="2" t="inlineStr">
-        <is>
-          <t>-27,91; 4,09</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="I1:K1"/>
-    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
